--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OkaPrasetiyo\OneDrive - NERA\Backups\01 Nera\01 Project\14 Telkom Data Protection\07 Devs\operations\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AF5E55-C649-434F-8169-2D53EC0C45DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B9BB30-19C5-4FD7-AD18-BDF1BE5FD09D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" xr2:uid="{272EE8CB-9945-4A8E-9E61-D2B2DD23DB13}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="1" xr2:uid="{272EE8CB-9945-4A8E-9E61-D2B2DD23DB13}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
-    <sheet name="workshops_api" sheetId="2" r:id="rId2"/>
-    <sheet name="cte_registration" sheetId="3" r:id="rId3"/>
-    <sheet name="cte_provisioning" sheetId="4" r:id="rId4"/>
-    <sheet name="bdt_transform" sheetId="5" r:id="rId5"/>
+    <sheet name="file_to_file" sheetId="6" r:id="rId2"/>
+    <sheet name="workshops_api" sheetId="2" r:id="rId3"/>
+    <sheet name="cte_registration" sheetId="3" r:id="rId4"/>
+    <sheet name="cte_provisioning" sheetId="4" r:id="rId5"/>
+    <sheet name="bdt_transform" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Pilih Task apa yang ingin di lakukan</t>
   </si>
@@ -83,6 +84,9 @@
   </si>
   <si>
     <t>Transform File to File</t>
+  </si>
+  <si>
+    <t>file_to_file</t>
   </si>
 </sst>
 </file>
@@ -958,8 +962,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,6 +1040,9 @@
       </c>
       <c r="D8" t="b">
         <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1166,6 +1173,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E77BD83-BCF7-4A10-A32A-FD524F4F3D79}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0838D7-01BC-49B6-915D-D9B0C98AB3F4}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1217,7 +1238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABA5082-06DC-4E87-8A52-17F2E1913BAE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1231,7 +1252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9DD9CE-5AA7-4BCF-958B-EC9477623CCE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1245,7 +1266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA44691-A9C9-46E2-9C4A-9FF57D2DE496}">
   <dimension ref="A1"/>
   <sheetViews>
